--- a/scrapy_xc/spiders/dist/dmoz/tasks.xlsx
+++ b/scrapy_xc/spiders/dist/dmoz/tasks.xlsx
@@ -488,7 +488,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -536,7 +536,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="5">
-        <v>43199</v>
+        <v>43200</v>
       </c>
       <c r="E2" s="5">
         <v>43202</v>
@@ -559,7 +559,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="7">
-        <v>43199</v>
+        <v>43200</v>
       </c>
       <c r="E3" s="7">
         <v>43201</v>

--- a/scrapy_xc/spiders/dist/dmoz/tasks.xlsx
+++ b/scrapy_xc/spiders/dist/dmoz/tasks.xlsx
@@ -488,7 +488,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
